--- a/biology/Zoologie/Heteragrionidae/Heteragrionidae.xlsx
+++ b/biology/Zoologie/Heteragrionidae/Heteragrionidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Heteragrionidae sont une famille de libellules du sous-ordre des Zygoptères (ordre des Odonates). Elle comprend une soixantaine d'espèces[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Heteragrionidae sont une famille de libellules du sous-ordre des Zygoptères (ordre des Odonates). Elle comprend une soixantaine d'espèces.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Heteragrionidae a été créé en 1959 par l'entomologiste letton Jānis Rācenis (d) (1915-1980)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Heteragrionidae a été créé en 1959 par l'entomologiste letton Jānis Rācenis (d) (1915-1980).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (16 août 2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (16 août 2021) :
 genre Dimeragrion Calvert, 1913
 genre Heteragrion Selys, 1862
 genre Heteropodagrion Selys, 1885
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(es) J. Rācenis, « Notas taxonómicas sobre la familia Megapodagrionidae (Odonata: Zygoptera) con la sinopsis de las especies venezolanas », Acta Biologica Venezuelica, vol. 2,‎ 1959, p. 335-367 (ISSN 0001-5326, OCLC 1460850)</t>
         </is>
